--- a/biology/Botanique/Votomita_guianensis/Votomita_guianensis.xlsx
+++ b/biology/Botanique/Votomita_guianensis/Votomita_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Votomita guianensis est une espèce néotropicale d'arbre endémique de Guyane et du Suriname, appartenant à la famille des Melastomataceae (anciennement des Memecylaceae). Il s'agit de l'espèce type du genre Votomita Aubl..
-En Guyane, il est connu sous les noms de Bois de fer (nom commercial) et Topi (Paramaka)[3].
+En Guyane, il est connu sous les noms de Bois de fer (nom commercial) et Topi (Paramaka).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Votomita guianensis est un arbre ou arbuste, glabre, atteignant 20 m de haut, pour 15 cm de diamètre ou plus d'épaisseur.
 Les jeunes rameaux sont quadrangulaires à étroitement à 4 ailes.
@@ -535,7 +549,7 @@
 L'ovaire est infère à placentation libre-centrale ou axile, et comporte 1-(2) loges contenant 9-10 ovules.
 Le style est long de 5 mm.
 Les fruits sont des baies orange, d'environ 79 mm de diamètre, couronnées par un calice persistant.
-L'unique graine globuleuse mesure environ 6,5 mm de diamètre[4],[3].
+L'unique graine globuleuse mesure environ 6,5 mm de diamètre,.
 </t>
         </is>
       </c>
@@ -564,9 +578,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Votomita guianensis est présente une aire de répartition restreinte depuis l'est du Suriname (monts Pakaraima) jusqu'à l'ouest de la Guyane[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Votomita guianensis est présente une aire de répartition restreinte depuis l'est du Suriname (monts Pakaraima) jusqu'à l'ouest de la Guyane.
 </t>
         </is>
       </c>
@@ -595,9 +611,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Votomita guianensis pousse dans les forêts humides au-dessus du niveau d'inondation, principalement en dessous de 100 m d'altitude (jusqu'à 450 m en Guyane)[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Votomita guianensis pousse dans les forêts humides au-dessus du niveau d'inondation, principalement en dessous de 100 m d'altitude (jusqu'à 450 m en Guyane). 
 </t>
         </is>
       </c>
@@ -626,9 +644,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « VOTOMITA Guianenſis. (Tabula 35.)
 Frutex trunco quinque vel ſex-pedali, ad apicem ramos plurimos nodoſos, undique ſparſos emittens, quorum ramuſculi ſunt quadrangulares. Folia oppoſita, ſubſeſſilia, ovata, acuminata, glabra, rigida, integerrima. Stipula brevis, acuta, utrinque intra baſim petiolarum, decidua. Flores corymboſi, axillares. Corymbi oppoſiti, axillares, &amp; tri vel quadri-flori. Singulus nos pedunculo donatur, &amp; squamula ad baſim pedunculi. Corolla alba.
 Nomen caribæum VOTOMIT.
